--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>980933.5077492278</v>
+        <v>973024.2220858854</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8449809.474284522</v>
+        <v>8729695.796941048</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4184533.616287898</v>
+        <v>4135159.406663879</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10062288.31244521</v>
+        <v>10063546.69206733</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>11.39108932486009</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>343.372584904993</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>197.4083929851558</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>11.28766011054642</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>88.86957797204941</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>276.3478473479661</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>99.70909017583222</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>148.2932254634417</v>
+        <v>75.2956667436371</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>75.45713216103746</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>96.42217904608172</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.93482921065033</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>30.99478128622415</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.79925355567458</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>150.2062474346968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,22 +1847,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>93.05478608072454</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.1690567639023</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>47.85182542773886</v>
       </c>
       <c r="D19" t="n">
-        <v>106.5867442799587</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>157.7822070347165</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>63.72703424640825</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6.380068175846804</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,10 +2533,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>244.4696668568613</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247655</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.73530533531541</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>48.37445137896839</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>150.2062474346966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>146.9083821604489</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>203.1977700471487</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,16 +3275,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>337.2499900222388</v>
       </c>
       <c r="G35" t="n">
-        <v>293.1146090857728</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>149.2419515106229</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.5103646250812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>406.8708392937418</v>
+        <v>95.80077002143486</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247724</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3718,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X40" t="n">
-        <v>176.7697821123582</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,10 +3755,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.59564018262378</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>54.2082326110459</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,10 +3913,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>248.0745433590083</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>176.7697821123582</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>278.3430256404484</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>83.97322243222207</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2251.981069572904</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C2" t="n">
-        <v>1883.018552632492</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D2" t="n">
-        <v>1524.752854025742</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E2" t="n">
-        <v>1138.964601427497</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F2" t="n">
-        <v>727.9786966378899</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I4" t="n">
         <v>99.5995062532301</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2307.009759042411</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>862.1188160875561</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>476.3305634893118</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>65.34465869970427</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>65.34465869970427</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1342.271455617851</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1969.579123677698</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2516.740328444775</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4601,16 +4601,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>75.36635275580478</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>142.9741724191618</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>647.3357122852804</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1287.881061752385</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1955.425461779395</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>964.1104128028916</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>813.9937733905558</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>666.0806798081627</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>519.1907323102523</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>350.5838873056357</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>2095.749389221812</v>
       </c>
       <c r="C8" t="n">
-        <v>1267.804920971789</v>
+        <v>1726.7868722814</v>
       </c>
       <c r="D8" t="n">
-        <v>1267.804920971789</v>
+        <v>1368.52117367465</v>
       </c>
       <c r="E8" t="n">
-        <v>882.0166683735445</v>
+        <v>982.7329210764053</v>
       </c>
       <c r="F8" t="n">
-        <v>471.030763583937</v>
+        <v>571.7470162867978</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6592345232253</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6592345232253</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,13 +4808,13 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1038.481977701813</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1225.181390527221</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>2482.349229285934</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1279.805585465869</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1478.462327118533</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2027.898335871256</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.4366193059393</v>
+        <v>423.447068407922</v>
       </c>
       <c r="C10" t="n">
-        <v>482.5004363780324</v>
+        <v>254.510885480015</v>
       </c>
       <c r="D10" t="n">
-        <v>482.5004363780324</v>
+        <v>254.510885480015</v>
       </c>
       <c r="E10" t="n">
-        <v>482.5004363780324</v>
+        <v>254.510885480015</v>
       </c>
       <c r="F10" t="n">
-        <v>482.5004363780324</v>
+        <v>254.510885480015</v>
       </c>
       <c r="G10" t="n">
-        <v>332.7092995462731</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="H10" t="n">
         <v>178.4546564460382</v>
@@ -5002,10 +5002,10 @@
         <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>825.8881123816918</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.085084136179</v>
+        <v>605.0955332381617</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1698.509627919558</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C11" t="n">
-        <v>1329.547110979146</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D11" t="n">
-        <v>1329.547110979146</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E11" t="n">
         <v>1232.150970528558</v>
@@ -5036,13 +5036,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,40 +5051,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1698.509627919558</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5094,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1908.168457976725</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1716.482573803551</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1494.715958373077</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1205.613091498721</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>950.9286032928337</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>661.511433255873</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>433.5218823578557</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="14">
@@ -5252,61 +5252,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>883.8708262827843</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>525.6051276760338</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>139.8168750777896</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
         <v>2755.806928794324</v>
@@ -5315,13 +5315,13 @@
         <v>2755.806928794324</v>
       </c>
       <c r="W14" t="n">
-        <v>2755.806928794324</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X14" t="n">
-        <v>2755.806928794324</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="15">
@@ -5331,70 +5331,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5455,31 +5455,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1645.778206672847</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U16" t="n">
-        <v>1645.778206672847</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V16" t="n">
-        <v>1645.778206672847</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W16" t="n">
-        <v>1645.778206672847</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1144.044138553435</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609169</v>
+        <v>3231.611088194298</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609169</v>
+        <v>2978.080611468134</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609169</v>
+        <v>2647.017724124563</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.605821609169</v>
+        <v>2294.249068854449</v>
       </c>
       <c r="X17" t="n">
-        <v>2952.140063348089</v>
+        <v>1920.783310593369</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>1530.643978617557</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>880.2242361621292</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="C19" t="n">
-        <v>880.2242361621292</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621292</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W19" t="n">
-        <v>880.2242361621292</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X19" t="n">
-        <v>880.2242361621292</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y19" t="n">
-        <v>880.2242361621292</v>
+        <v>873.6869975319821</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5738,64 +5738,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5820,37 +5820,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5899,19 +5899,19 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,34 +5923,34 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104703</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>1796.967499402969</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W22" t="n">
-        <v>1507.550329366009</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X22" t="n">
-        <v>1279.560778467991</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y22" t="n">
         <v>1058.768199324461</v>
@@ -5975,49 +5975,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>351.3014367967918</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>685.1208104866382</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1549.639626139993</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969821</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196468</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6057,37 +6057,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3092.649987000255</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C25" t="n">
-        <v>2923.713804072348</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D25" t="n">
-        <v>2917.269290763412</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E25" t="n">
-        <v>2917.269290763412</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4778.05172241972</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>4556.285106989246</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>4267.182240114889</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>4012.497751909003</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W25" t="n">
-        <v>3723.080581872042</v>
+        <v>1006.849042195526</v>
       </c>
       <c r="X25" t="n">
-        <v>3495.091030974025</v>
+        <v>778.8594912975091</v>
       </c>
       <c r="Y25" t="n">
-        <v>3274.298451830495</v>
+        <v>558.0669121539789</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195856</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3195.001976422503</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3697.97444730184</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6260,16 +6260,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,70 +6279,70 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282341</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1644.746393431757</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1644.746393431757</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>1355.329223394796</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>1355.329223394796</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>1134.536644251266</v>
+        <v>343.0033510423848</v>
       </c>
     </row>
     <row r="29">
@@ -6464,16 +6464,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972662</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>3065.182384345804</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>3065.182384345804</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>3065.182384345804</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689057</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U31" t="n">
-        <v>1674.827124689057</v>
+        <v>3985.665898699243</v>
       </c>
       <c r="V31" t="n">
-        <v>1674.827124689057</v>
+        <v>3730.981410493357</v>
       </c>
       <c r="W31" t="n">
-        <v>1674.827124689057</v>
+        <v>3441.564240456396</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.103642431788</v>
+        <v>3213.574689558379</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>3065.182384345804</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6850,16 +6850,16 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,28 +6871,28 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1751.093193329805</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.093193329805</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V34" t="n">
-        <v>1751.093193329805</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W34" t="n">
         <v>1751.093193329805</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2242.650134636255</v>
+        <v>1951.737373715004</v>
       </c>
       <c r="C35" t="n">
-        <v>1873.687617695844</v>
+        <v>1582.774856774593</v>
       </c>
       <c r="D35" t="n">
-        <v>1515.421919089093</v>
+        <v>1224.509158167842</v>
       </c>
       <c r="E35" t="n">
-        <v>1129.633666490849</v>
+        <v>838.720905569598</v>
       </c>
       <c r="F35" t="n">
-        <v>718.6477617012413</v>
+        <v>498.064349991579</v>
       </c>
       <c r="G35" t="n">
-        <v>422.5723989883395</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="H35" t="n">
-        <v>124.9887985971067</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="I35" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J35" t="n">
-        <v>271.8710307956009</v>
+        <v>439.2766798159539</v>
       </c>
       <c r="K35" t="n">
-        <v>605.6904044854474</v>
+        <v>819.3679737833299</v>
       </c>
       <c r="L35" t="n">
-        <v>1470.209220138802</v>
+        <v>1270.402187031739</v>
       </c>
       <c r="M35" t="n">
-        <v>2397.765909220991</v>
+        <v>1803.934091703663</v>
       </c>
       <c r="N35" t="n">
-        <v>2944.544726279773</v>
+        <v>2350.712908762446</v>
       </c>
       <c r="O35" t="n">
-        <v>3447.51719715911</v>
+        <v>2853.685379641783</v>
       </c>
       <c r="P35" t="n">
-        <v>3842.291563516289</v>
+        <v>3567.040467088728</v>
       </c>
       <c r="Q35" t="n">
-        <v>4090.577925271971</v>
+        <v>4025.518669597716</v>
       </c>
       <c r="R35" t="n">
-        <v>4149.594991828773</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="S35" t="n">
-        <v>4149.594991828773</v>
+        <v>4039.304323355866</v>
       </c>
       <c r="T35" t="n">
-        <v>3943.617244212996</v>
+        <v>4039.304323355866</v>
       </c>
       <c r="U35" t="n">
-        <v>3690.086767486832</v>
+        <v>3785.773846629703</v>
       </c>
       <c r="V35" t="n">
-        <v>3359.023880143261</v>
+        <v>3454.710959286132</v>
       </c>
       <c r="W35" t="n">
-        <v>3006.255224873147</v>
+        <v>3101.942304016018</v>
       </c>
       <c r="X35" t="n">
-        <v>2632.789466612067</v>
+        <v>2728.476545754938</v>
       </c>
       <c r="Y35" t="n">
-        <v>2242.650134636255</v>
+        <v>2338.337213779126</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>958.0236378855008</v>
+        <v>958.0236378855005</v>
       </c>
       <c r="C36" t="n">
-        <v>783.5706086043738</v>
+        <v>783.5706086043735</v>
       </c>
       <c r="D36" t="n">
-        <v>634.6361989431225</v>
+        <v>634.6361989431223</v>
       </c>
       <c r="E36" t="n">
-        <v>475.3987439376669</v>
+        <v>475.3987439376668</v>
       </c>
       <c r="F36" t="n">
-        <v>328.8641859645519</v>
+        <v>328.8641859645518</v>
       </c>
       <c r="G36" t="n">
-        <v>192.50108579717</v>
+        <v>192.5010857971699</v>
       </c>
       <c r="H36" t="n">
         <v>101.9991914350375</v>
       </c>
       <c r="I36" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J36" t="n">
         <v>176.6691693271928</v>
@@ -7047,7 +7047,7 @@
         <v>2259.308085701584</v>
       </c>
       <c r="U36" t="n">
-        <v>2031.240238836</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V36" t="n">
         <v>1796.088130604257</v>
@@ -7056,7 +7056,7 @@
         <v>1541.850773876055</v>
       </c>
       <c r="X36" t="n">
-        <v>1333.999273670523</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y36" t="n">
         <v>1126.238974905569</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2288.812560172464</v>
+        <v>3313.914124182086</v>
       </c>
       <c r="C37" t="n">
-        <v>2288.812560172464</v>
+        <v>3144.977941254179</v>
       </c>
       <c r="D37" t="n">
-        <v>2288.812560172464</v>
+        <v>2994.861301841843</v>
       </c>
       <c r="E37" t="n">
-        <v>2288.812560172464</v>
+        <v>2846.94820825945</v>
       </c>
       <c r="F37" t="n">
-        <v>2288.812560172464</v>
+        <v>2700.05826076154</v>
       </c>
       <c r="G37" t="n">
-        <v>2288.812560172464</v>
+        <v>2532.355424136259</v>
       </c>
       <c r="H37" t="n">
-        <v>2288.812560172464</v>
+        <v>2386.138237354116</v>
       </c>
       <c r="I37" t="n">
-        <v>2288.812560172464</v>
+        <v>2288.812560172462</v>
       </c>
       <c r="J37" t="n">
-        <v>2333.935192619399</v>
+        <v>2333.935192619398</v>
       </c>
       <c r="K37" t="n">
-        <v>2537.922375568276</v>
+        <v>2537.922375568274</v>
       </c>
       <c r="L37" t="n">
-        <v>2854.482174016772</v>
+        <v>2854.48217401677</v>
       </c>
       <c r="M37" t="n">
-        <v>3198.639219616321</v>
+        <v>3198.639219616319</v>
       </c>
       <c r="N37" t="n">
-        <v>3540.047596322186</v>
+        <v>3540.047596322184</v>
       </c>
       <c r="O37" t="n">
-        <v>3839.377195242599</v>
+        <v>3839.377195242597</v>
       </c>
       <c r="P37" t="n">
-        <v>4071.984695676259</v>
+        <v>4071.984695676257</v>
       </c>
       <c r="Q37" t="n">
-        <v>4149.594991828773</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="R37" t="n">
-        <v>4059.764534586301</v>
+        <v>4059.764534586299</v>
       </c>
       <c r="S37" t="n">
-        <v>3868.078650413127</v>
+        <v>3868.078650413126</v>
       </c>
       <c r="T37" t="n">
-        <v>3646.312034982654</v>
+        <v>3646.312034982652</v>
       </c>
       <c r="U37" t="n">
-        <v>3357.209168108297</v>
+        <v>3495.562589012326</v>
       </c>
       <c r="V37" t="n">
-        <v>3102.52467990241</v>
+        <v>3495.562589012326</v>
       </c>
       <c r="W37" t="n">
-        <v>2813.10750986545</v>
+        <v>3495.562589012326</v>
       </c>
       <c r="X37" t="n">
-        <v>2585.117958967432</v>
+        <v>3495.562589012326</v>
       </c>
       <c r="Y37" t="n">
-        <v>2470.461025002704</v>
+        <v>3495.562589012326</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2315.558518914077</v>
+        <v>1745.759626099227</v>
       </c>
       <c r="C38" t="n">
-        <v>1946.596001973665</v>
+        <v>1376.797109158815</v>
       </c>
       <c r="D38" t="n">
-        <v>1588.330303366914</v>
+        <v>1018.531410552064</v>
       </c>
       <c r="E38" t="n">
-        <v>1202.54205076867</v>
+        <v>632.7431579538202</v>
       </c>
       <c r="F38" t="n">
-        <v>791.5561459790626</v>
+        <v>221.7572531642126</v>
       </c>
       <c r="G38" t="n">
-        <v>380.5755002278083</v>
+        <v>124.9887985971067</v>
       </c>
       <c r="H38" t="n">
-        <v>82.9918998365755</v>
+        <v>124.9887985971067</v>
       </c>
       <c r="I38" t="n">
-        <v>82.9918998365755</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J38" t="n">
-        <v>271.871030795601</v>
+        <v>439.2766798159539</v>
       </c>
       <c r="K38" t="n">
-        <v>605.6904044854475</v>
+        <v>773.0960535058005</v>
       </c>
       <c r="L38" t="n">
-        <v>1470.209220138802</v>
+        <v>1224.130266754209</v>
       </c>
       <c r="M38" t="n">
-        <v>2397.765909220993</v>
+        <v>1757.662171426134</v>
       </c>
       <c r="N38" t="n">
-        <v>2944.544726279775</v>
+        <v>2304.440988484916</v>
       </c>
       <c r="O38" t="n">
-        <v>3447.517197159112</v>
+        <v>2853.685379641783</v>
       </c>
       <c r="P38" t="n">
-        <v>3842.29156351629</v>
+        <v>3567.040467088728</v>
       </c>
       <c r="Q38" t="n">
-        <v>4090.577925271973</v>
+        <v>4025.518669597716</v>
       </c>
       <c r="R38" t="n">
-        <v>4149.594991828775</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="S38" t="n">
-        <v>4149.594991828775</v>
+        <v>4039.304323355866</v>
       </c>
       <c r="T38" t="n">
-        <v>4149.594991828775</v>
+        <v>3833.326575740089</v>
       </c>
       <c r="U38" t="n">
-        <v>4149.594991828775</v>
+        <v>3579.796099013925</v>
       </c>
       <c r="V38" t="n">
-        <v>3818.532104485204</v>
+        <v>3248.733211670354</v>
       </c>
       <c r="W38" t="n">
-        <v>3465.76344921509</v>
+        <v>2895.96455640024</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.29769095401</v>
+        <v>2522.49879813916</v>
       </c>
       <c r="Y38" t="n">
-        <v>2702.158358978199</v>
+        <v>2132.359466163348</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>958.0236378855008</v>
+        <v>958.0236378855004</v>
       </c>
       <c r="C39" t="n">
-        <v>783.5706086043738</v>
+        <v>783.5706086043734</v>
       </c>
       <c r="D39" t="n">
-        <v>634.6361989431225</v>
+        <v>634.6361989431222</v>
       </c>
       <c r="E39" t="n">
-        <v>475.3987439376669</v>
+        <v>475.3987439376667</v>
       </c>
       <c r="F39" t="n">
-        <v>328.8641859645519</v>
+        <v>328.8641859645517</v>
       </c>
       <c r="G39" t="n">
-        <v>192.50108579717</v>
+        <v>192.5010857971698</v>
       </c>
       <c r="H39" t="n">
-        <v>101.9991914350375</v>
+        <v>101.9991914350373</v>
       </c>
       <c r="I39" t="n">
-        <v>82.9918998365755</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J39" t="n">
         <v>176.6691693271928</v>
       </c>
       <c r="K39" t="n">
-        <v>414.93336830754</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L39" t="n">
-        <v>781.6315286202054</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M39" t="n">
         <v>1228.907853842521</v>
@@ -7266,10 +7266,10 @@
         <v>1702.430897396976</v>
       </c>
       <c r="O39" t="n">
-        <v>2113.392176815031</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P39" t="n">
-        <v>2423.891768291134</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q39" t="n">
         <v>2581.533325937733</v>
@@ -7284,7 +7284,7 @@
         <v>2259.308085701584</v>
       </c>
       <c r="U39" t="n">
-        <v>2031.240238836</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V39" t="n">
         <v>1796.088130604257</v>
@@ -7293,7 +7293,7 @@
         <v>1541.850773876055</v>
       </c>
       <c r="X39" t="n">
-        <v>1333.999273670523</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y39" t="n">
         <v>1126.238974905569</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1108.0934638462</v>
+        <v>1108.093463846199</v>
       </c>
       <c r="C40" t="n">
-        <v>939.1572809182927</v>
+        <v>939.1572809182926</v>
       </c>
       <c r="D40" t="n">
-        <v>789.040641505957</v>
+        <v>789.0406415059568</v>
       </c>
       <c r="E40" t="n">
-        <v>641.1275479235638</v>
+        <v>641.1275479235637</v>
       </c>
       <c r="F40" t="n">
-        <v>494.2376004256535</v>
+        <v>494.2376004256533</v>
       </c>
       <c r="G40" t="n">
-        <v>326.5347638003724</v>
+        <v>326.5347638003723</v>
       </c>
       <c r="H40" t="n">
         <v>180.3175770182301</v>
       </c>
       <c r="I40" t="n">
-        <v>82.9918998365755</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J40" t="n">
-        <v>128.1145322835111</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K40" t="n">
         <v>332.1017152323874</v>
       </c>
       <c r="L40" t="n">
-        <v>648.6615136808836</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M40" t="n">
         <v>992.8185592804325</v>
@@ -7366,10 +7366,10 @@
         <v>1943.774331492885</v>
       </c>
       <c r="V40" t="n">
-        <v>1689.089843286998</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="W40" t="n">
-        <v>1689.089843286998</v>
+        <v>1738.524058717986</v>
       </c>
       <c r="X40" t="n">
         <v>1510.534507819969</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2022.066722926593</v>
+        <v>2330.352990168961</v>
       </c>
       <c r="C41" t="n">
-        <v>1653.104205986181</v>
+        <v>1961.390473228549</v>
       </c>
       <c r="D41" t="n">
-        <v>1294.838507379431</v>
+        <v>1603.124774621799</v>
       </c>
       <c r="E41" t="n">
-        <v>909.0502547811866</v>
+        <v>1217.336522023554</v>
       </c>
       <c r="F41" t="n">
-        <v>498.064349991579</v>
+        <v>806.3506172339469</v>
       </c>
       <c r="G41" t="n">
-        <v>82.9918998365755</v>
+        <v>391.2781670789433</v>
       </c>
       <c r="H41" t="n">
-        <v>82.9918998365755</v>
+        <v>93.69456668771056</v>
       </c>
       <c r="I41" t="n">
-        <v>82.9918998365755</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J41" t="n">
-        <v>271.871030795601</v>
+        <v>271.8710307956009</v>
       </c>
       <c r="K41" t="n">
-        <v>605.6904044854475</v>
+        <v>605.6904044854473</v>
       </c>
       <c r="L41" t="n">
-        <v>1335.461442705995</v>
+        <v>1056.724617733856</v>
       </c>
       <c r="M41" t="n">
-        <v>1868.993347377919</v>
+        <v>1964.792454053125</v>
       </c>
       <c r="N41" t="n">
-        <v>2415.772164436702</v>
+        <v>2944.544726279772</v>
       </c>
       <c r="O41" t="n">
-        <v>2918.744635316039</v>
+        <v>3447.517197159108</v>
       </c>
       <c r="P41" t="n">
-        <v>3632.099722762985</v>
+        <v>3842.291563516287</v>
       </c>
       <c r="Q41" t="n">
-        <v>4090.577925271973</v>
+        <v>4090.577925271969</v>
       </c>
       <c r="R41" t="n">
-        <v>4149.594991828775</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="S41" t="n">
-        <v>4039.30432335587</v>
+        <v>4039.304323355866</v>
       </c>
       <c r="T41" t="n">
-        <v>3833.326575740092</v>
+        <v>3833.326575740089</v>
       </c>
       <c r="U41" t="n">
-        <v>3579.796099013929</v>
+        <v>3833.326575740089</v>
       </c>
       <c r="V41" t="n">
-        <v>3525.040308497721</v>
+        <v>3833.326575740089</v>
       </c>
       <c r="W41" t="n">
-        <v>3172.271653227606</v>
+        <v>3480.557920469974</v>
       </c>
       <c r="X41" t="n">
-        <v>2798.805894966526</v>
+        <v>3107.092162208894</v>
       </c>
       <c r="Y41" t="n">
-        <v>2408.666562990715</v>
+        <v>2716.952830233083</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>958.0236378855008</v>
+        <v>958.0236378855005</v>
       </c>
       <c r="C42" t="n">
-        <v>783.5706086043738</v>
+        <v>783.5706086043735</v>
       </c>
       <c r="D42" t="n">
-        <v>634.6361989431225</v>
+        <v>634.6361989431223</v>
       </c>
       <c r="E42" t="n">
-        <v>475.3987439376669</v>
+        <v>475.3987439376668</v>
       </c>
       <c r="F42" t="n">
-        <v>328.8641859645519</v>
+        <v>328.8641859645518</v>
       </c>
       <c r="G42" t="n">
-        <v>192.50108579717</v>
+        <v>192.5010857971699</v>
       </c>
       <c r="H42" t="n">
         <v>101.9991914350375</v>
       </c>
       <c r="I42" t="n">
-        <v>82.9918998365755</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J42" t="n">
         <v>176.6691693271928</v>
       </c>
       <c r="K42" t="n">
-        <v>414.93336830754</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L42" t="n">
-        <v>781.6315286202054</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M42" t="n">
         <v>1228.907853842521</v>
@@ -7503,10 +7503,10 @@
         <v>1702.430897396976</v>
       </c>
       <c r="O42" t="n">
-        <v>2113.392176815031</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P42" t="n">
-        <v>2423.891768291134</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q42" t="n">
         <v>2581.533325937733</v>
@@ -7521,7 +7521,7 @@
         <v>2259.308085701584</v>
       </c>
       <c r="U42" t="n">
-        <v>2031.240238836</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V42" t="n">
         <v>1796.088130604257</v>
@@ -7530,7 +7530,7 @@
         <v>1541.850773876055</v>
       </c>
       <c r="X42" t="n">
-        <v>1333.999273670523</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y42" t="n">
         <v>1126.238974905569</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1108.0934638462</v>
+        <v>714.4339604700668</v>
       </c>
       <c r="C43" t="n">
-        <v>939.1572809182927</v>
+        <v>545.49777754216</v>
       </c>
       <c r="D43" t="n">
-        <v>789.040641505957</v>
+        <v>545.49777754216</v>
       </c>
       <c r="E43" t="n">
-        <v>641.1275479235638</v>
+        <v>397.5846839597668</v>
       </c>
       <c r="F43" t="n">
-        <v>494.2376004256535</v>
+        <v>250.6947364618565</v>
       </c>
       <c r="G43" t="n">
-        <v>326.5347638003724</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="H43" t="n">
-        <v>180.3175770182301</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="I43" t="n">
-        <v>82.9918998365755</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J43" t="n">
-        <v>128.1145322835111</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K43" t="n">
         <v>332.1017152323874</v>
       </c>
       <c r="L43" t="n">
-        <v>648.6615136808836</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M43" t="n">
         <v>992.8185592804325</v>
@@ -7591,28 +7591,28 @@
         <v>1943.774331492885</v>
       </c>
       <c r="R43" t="n">
-        <v>1943.774331492885</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="S43" t="n">
-        <v>1943.774331492885</v>
+        <v>1662.257990077239</v>
       </c>
       <c r="T43" t="n">
-        <v>1943.774331492885</v>
+        <v>1440.491374646765</v>
       </c>
       <c r="U43" t="n">
-        <v>1943.774331492885</v>
+        <v>1189.911027819484</v>
       </c>
       <c r="V43" t="n">
-        <v>1689.089843286998</v>
+        <v>935.226539613597</v>
       </c>
       <c r="W43" t="n">
-        <v>1689.089843286998</v>
+        <v>935.226539613597</v>
       </c>
       <c r="X43" t="n">
-        <v>1510.534507819969</v>
+        <v>935.226539613597</v>
       </c>
       <c r="Y43" t="n">
-        <v>1289.741928676439</v>
+        <v>714.4339604700668</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1265.78958936322</v>
+        <v>1546.944160717208</v>
       </c>
       <c r="C44" t="n">
-        <v>1265.78958936322</v>
+        <v>1546.944160717208</v>
       </c>
       <c r="D44" t="n">
         <v>1265.78958936322</v>
@@ -7637,61 +7637,61 @@
         <v>469.015431975368</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J44" t="n">
-        <v>53.94298182036449</v>
+        <v>242.8221127793899</v>
       </c>
       <c r="K44" t="n">
-        <v>53.94298182036449</v>
+        <v>463.7263613694428</v>
       </c>
       <c r="L44" t="n">
-        <v>411.7881037385174</v>
+        <v>914.7605746178516</v>
       </c>
       <c r="M44" t="n">
-        <v>945.3200084104419</v>
+        <v>1448.292479289776</v>
       </c>
       <c r="N44" t="n">
-        <v>1492.098825469224</v>
+        <v>1995.071296348558</v>
       </c>
       <c r="O44" t="n">
-        <v>1995.071296348561</v>
+        <v>1995.071296348558</v>
       </c>
       <c r="P44" t="n">
-        <v>2389.845662705739</v>
+        <v>2389.845662705737</v>
       </c>
       <c r="Q44" t="n">
-        <v>2638.132024461422</v>
+        <v>2638.132024461419</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S44" t="n">
-        <v>2586.858422545319</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T44" t="n">
-        <v>2380.880674929541</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U44" t="n">
-        <v>2127.350198203378</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V44" t="n">
-        <v>2042.528761403153</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W44" t="n">
-        <v>2042.528761403153</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="X44" t="n">
-        <v>2042.528761403153</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y44" t="n">
-        <v>1652.389429427342</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>928.9747198692894</v>
+        <v>928.9747198692897</v>
       </c>
       <c r="C45" t="n">
-        <v>754.5216905881624</v>
+        <v>754.5216905881628</v>
       </c>
       <c r="D45" t="n">
-        <v>605.5872809269113</v>
+        <v>605.5872809269115</v>
       </c>
       <c r="E45" t="n">
-        <v>446.3498259214557</v>
+        <v>446.3498259214559</v>
       </c>
       <c r="F45" t="n">
-        <v>299.8152679483408</v>
+        <v>299.8152679483409</v>
       </c>
       <c r="G45" t="n">
-        <v>163.4521677809594</v>
+        <v>163.4521677809589</v>
       </c>
       <c r="H45" t="n">
-        <v>72.95027341882701</v>
+        <v>72.95027341882647</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J45" t="n">
-        <v>147.6202513109816</v>
+        <v>147.6202513109818</v>
       </c>
       <c r="K45" t="n">
-        <v>385.8844502913287</v>
+        <v>385.8844502913289</v>
       </c>
       <c r="L45" t="n">
-        <v>752.5826106039941</v>
+        <v>752.5826106039942</v>
       </c>
       <c r="M45" t="n">
         <v>1199.85893582631</v>
@@ -7767,10 +7767,10 @@
         <v>1512.801855859844</v>
       </c>
       <c r="X45" t="n">
-        <v>1304.950355654311</v>
+        <v>1304.950355654312</v>
       </c>
       <c r="Y45" t="n">
-        <v>1097.190056889357</v>
+        <v>1097.190056889358</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1861.468223371538</v>
+        <v>1079.044545829988</v>
       </c>
       <c r="C46" t="n">
-        <v>1692.532040443632</v>
+        <v>910.1083629020816</v>
       </c>
       <c r="D46" t="n">
-        <v>1542.415401031296</v>
+        <v>759.9917234897458</v>
       </c>
       <c r="E46" t="n">
-        <v>1394.502307448903</v>
+        <v>612.0786299073527</v>
       </c>
       <c r="F46" t="n">
-        <v>1247.612359950993</v>
+        <v>465.1886824094423</v>
       </c>
       <c r="G46" t="n">
-        <v>1079.909523325712</v>
+        <v>297.4858457841613</v>
       </c>
       <c r="H46" t="n">
-        <v>933.6923365435695</v>
+        <v>151.2686590020191</v>
       </c>
       <c r="I46" t="n">
-        <v>836.3666593619148</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J46" t="n">
-        <v>881.4892918088503</v>
+        <v>99.06561426729999</v>
       </c>
       <c r="K46" t="n">
-        <v>1085.476474757727</v>
+        <v>303.0527972161764</v>
       </c>
       <c r="L46" t="n">
-        <v>1402.036273206223</v>
+        <v>619.6125956646724</v>
       </c>
       <c r="M46" t="n">
-        <v>1746.193318805772</v>
+        <v>963.7696412642215</v>
       </c>
       <c r="N46" t="n">
-        <v>2087.601695511637</v>
+        <v>1305.178017970086</v>
       </c>
       <c r="O46" t="n">
-        <v>2386.93129443205</v>
+        <v>1604.5076168905</v>
       </c>
       <c r="P46" t="n">
-        <v>2619.538794865709</v>
+        <v>1837.115117324159</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018224</v>
+        <v>1914.725413476674</v>
       </c>
       <c r="R46" t="n">
-        <v>2607.318633775752</v>
+        <v>1914.725413476674</v>
       </c>
       <c r="S46" t="n">
-        <v>2415.632749602578</v>
+        <v>1914.725413476674</v>
       </c>
       <c r="T46" t="n">
-        <v>2415.632749602578</v>
+        <v>1709.475140701775</v>
       </c>
       <c r="U46" t="n">
-        <v>2415.632749602578</v>
+        <v>1709.475140701775</v>
       </c>
       <c r="V46" t="n">
-        <v>2415.632749602578</v>
+        <v>1709.475140701775</v>
       </c>
       <c r="W46" t="n">
-        <v>2415.632749602578</v>
+        <v>1709.475140701775</v>
       </c>
       <c r="X46" t="n">
-        <v>2263.909267345308</v>
+        <v>1481.485589803758</v>
       </c>
       <c r="Y46" t="n">
-        <v>2043.116688201778</v>
+        <v>1260.693010660228</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8231,10 +8231,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>35.04072454780373</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>27.87297380358529</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,16 +8456,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>255.6599272792059</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>271.7036563660311</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400261</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>67.53663776704246</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
-        <v>316.1012371454195</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8.917311333789257e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476844</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710931</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>46.73931341164598</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>398.0048327376406</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>398.0048327376426</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>46.73931341164621</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,22 +11063,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>281.5523484567053</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>378.3191228761053</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>371.3427523386205</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>70.41158511580198</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,19 +22711,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>167.8644987858518</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22796,13 +22796,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>303.7532239646691</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,19 +22829,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22942,13 +22942,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>78.37724312657842</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22984,19 +22984,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,10 +23021,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>88.92504442304141</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23039,7 +23039,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>18.78695071805808</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,7 +23072,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23191,10 +23191,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>18.62755109112871</v>
+        <v>91.62510981093334</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23242,7 +23242,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>307.2767095024431</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>285.50819102618</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>69.99732345939699</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>375.8812644554873</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>362.438685100379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>75.5034079543403</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,22 +23735,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,22 +23783,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>110.8631840588956</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>168.0688818921513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>119.394995670889</v>
       </c>
       <c r="D19" t="n">
-        <v>42.02872873825365</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24181,19 +24181,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>94.35543628911145</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>154.8576191056865</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>142.2354048423655</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>42.05333147972968</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.0966748466219</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>170.2102019731264</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24889,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>75.50340795434053</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>71.67627119164587</v>
       </c>
     </row>
     <row r="32">
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>16.35117922902052</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25163,16 +25163,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>69.62605571947262</v>
       </c>
       <c r="G35" t="n">
-        <v>117.8071165676807</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,10 +25202,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25366,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>136.96988669499</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>105.0742887270136</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25403,13 +25403,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.050886359711626</v>
+        <v>315.1209556320186</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25439,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X40" t="n">
-        <v>48.93987327667895</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>30.98128959030217</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,10 +25682,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>273.544025859089</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>38.13729484660459</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>48.93987327667895</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>76.34001598023451</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25913,22 +25913,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>243.7790360379128</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>16.35117922901983</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>764829.5403202326</v>
+        <v>766138.2551272397</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>823272.5892503087</v>
+        <v>823272.5892503085</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>823272.5892503085</v>
+        <v>823272.5892503086</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>980765.2139519756</v>
+        <v>980765.2139519757</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>980765.2139519757</v>
+        <v>980765.2139519756</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>912619.9563854379</v>
+        <v>912619.9563854377</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912619.9563854383</v>
+        <v>912619.9563854377</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>912619.9563854383</v>
+        <v>912619.9563854377</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>765031.3019140615</v>
+        <v>765031.3019140614</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173334</v>
+        <v>328930.1971346177</v>
       </c>
       <c r="D2" t="n">
-        <v>328930.197134618</v>
+        <v>328930.1971346179</v>
       </c>
       <c r="E2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="F2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="G2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="H2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="I2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="J2" t="n">
         <v>436789.9655756816</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="L2" t="n">
         <v>436789.9655756816</v>
-      </c>
-      <c r="J2" t="n">
-        <v>436789.9655756814</v>
-      </c>
-      <c r="K2" t="n">
-        <v>436789.9655756817</v>
-      </c>
-      <c r="L2" t="n">
-        <v>436789.9655756817</v>
       </c>
       <c r="M2" t="n">
         <v>410096.0422132349</v>
       </c>
       <c r="N2" t="n">
-        <v>410096.0422132349</v>
+        <v>410096.0422132348</v>
       </c>
       <c r="O2" t="n">
-        <v>410096.042213235</v>
+        <v>410096.0422132348</v>
       </c>
       <c r="P2" t="n">
-        <v>348402.8855055662</v>
+        <v>348402.885505566</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>445640.2295734509</v>
+        <v>445640.2295734512</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>97970.74401294849</v>
+        <v>97970.74401294843</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69280.52355892843</v>
+        <v>71376.38478147394</v>
       </c>
       <c r="C4" t="n">
-        <v>69280.52355892841</v>
+        <v>48993.41451395674</v>
       </c>
       <c r="D4" t="n">
-        <v>47559.7895538599</v>
+        <v>48993.41451395673</v>
       </c>
       <c r="E4" t="n">
-        <v>5356.477108136412</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="F4" t="n">
-        <v>5356.477108136412</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="G4" t="n">
-        <v>5356.477108136412</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="M4" t="n">
-        <v>18055.21317142414</v>
+        <v>18583.58934587791</v>
       </c>
       <c r="N4" t="n">
-        <v>18055.21317142417</v>
+        <v>18583.58934587791</v>
       </c>
       <c r="O4" t="n">
-        <v>18055.21317142416</v>
+        <v>18583.5893458779</v>
       </c>
       <c r="P4" t="n">
-        <v>5282.197331409225</v>
+        <v>5426.515570278143</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="G5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>86830.97594873125</v>
+        <v>86830.97594873123</v>
       </c>
       <c r="N5" t="n">
-        <v>86830.97594873128</v>
+        <v>86830.97594873123</v>
       </c>
       <c r="O5" t="n">
-        <v>86830.97594873128</v>
+        <v>86830.97594873123</v>
       </c>
       <c r="P5" t="n">
-        <v>64753.79825641091</v>
+        <v>64753.79825641087</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-424039.6098195489</v>
+        <v>-426135.4710420946</v>
       </c>
       <c r="C6" t="n">
-        <v>165928.2693949956</v>
+        <v>-4071.650346821043</v>
       </c>
       <c r="D6" t="n">
-        <v>9052.083861799721</v>
+        <v>192374.7374498144</v>
       </c>
       <c r="E6" t="n">
-        <v>-150206.2383749678</v>
+        <v>-150350.5566138371</v>
       </c>
       <c r="F6" t="n">
-        <v>295433.9911984831</v>
+        <v>295289.6729596141</v>
       </c>
       <c r="G6" t="n">
-        <v>295433.9911984829</v>
+        <v>295289.6729596141</v>
       </c>
       <c r="H6" t="n">
-        <v>214695.1612068228</v>
+        <v>213873.8639561237</v>
       </c>
       <c r="I6" t="n">
-        <v>312665.9052197713</v>
+        <v>311844.6079690721</v>
       </c>
       <c r="J6" t="n">
-        <v>136242.6860271781</v>
+        <v>135421.3887764793</v>
       </c>
       <c r="K6" t="n">
-        <v>312665.9052197713</v>
+        <v>311844.6079690722</v>
       </c>
       <c r="L6" t="n">
-        <v>312665.9052197713</v>
+        <v>311844.6079690722</v>
       </c>
       <c r="M6" t="n">
-        <v>305209.8530930796</v>
+        <v>304681.4769186258</v>
       </c>
       <c r="N6" t="n">
-        <v>305209.8530930795</v>
+        <v>304681.4769186256</v>
       </c>
       <c r="O6" t="n">
-        <v>305209.8530930795</v>
+        <v>304681.4769186257</v>
       </c>
       <c r="P6" t="n">
-        <v>278366.8899177461</v>
+        <v>278222.571678877</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26796,13 +26796,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>1194.51293060493</v>
@@ -26823,13 +26823,13 @@
         <v>1037.398747957193</v>
       </c>
       <c r="N4" t="n">
-        <v>1037.398747957194</v>
+        <v>1037.398747957193</v>
       </c>
       <c r="O4" t="n">
-        <v>1037.398747957194</v>
+        <v>1037.398747957193</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545554</v>
       </c>
     </row>
   </sheetData>
@@ -26960,13 +26960,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>496.300600255233</v>
+        <v>496.3006002552332</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477367</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>363.1114752026377</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477367</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>363.1114752026377</v>
+        <v>363.1114752026375</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34366,13 +34366,13 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>443.2254556813976</v>
       </c>
       <c r="L44" t="n">
-        <v>597.2261340792327</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34381,7 +34381,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
         <v>629.9949819746414</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>83.39712583292152</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>146.8935783352043</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>21.6397686216569</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353429</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,16 +35176,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>396.3959432804718</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35255,10 +35255,10 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35267,7 +35267,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>381.4911589188582</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282451</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>258.323638735755</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
-        <v>714.8632233647911</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359034</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>713.9299079303029</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>383.9305999670465</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>936.9259485678674</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>936.9259485678693</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>554.7923142998653</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37783,22 +37783,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>737.1424628490374</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>917.2402387063321</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>223.1356046364171</v>
       </c>
       <c r="L44" t="n">
-        <v>361.4597191092454</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38029,7 +38029,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
